--- a/Unit_Testing.xlsx
+++ b/Unit_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W5G\OpenSCSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A643B0F-EC7B-45A0-A2C4-CE8B8EDF951D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4EA3B5-CC8E-405F-A267-1D4DAD3FA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{06B2537C-7BF8-44BD-9FAA-7A44331C0859}"/>
   </bookViews>
@@ -587,9 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F26B4FF-B2EB-4BA3-91C0-3C3F5070858F}">
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH20" sqref="AH20:AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,10 +2504,10 @@
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="12">
-        <v>-311629278.64450419</v>
-      </c>
+      <c r="AH20" s="12">
+        <v>-305518900.63186687</v>
+      </c>
+      <c r="AI20" s="12"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -2567,10 +2567,10 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="17">
-        <v>-173127377.02472454</v>
-      </c>
+      <c r="AH21" s="17">
+        <v>-169732722.57325935</v>
+      </c>
+      <c r="AI21" s="17"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -2630,10 +2630,10 @@
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="12">
-        <v>-484756655.66922873</v>
-      </c>
+      <c r="AH22" s="12">
+        <v>-475251623.20512623</v>
+      </c>
+      <c r="AI22" s="12"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
